--- a/trunk/semester 8/Mediachip/perkiraan.xlsx
+++ b/trunk/semester 8/Mediachip/perkiraan.xlsx
@@ -1,23 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Server HP Proliat DL 500 Series</t>
+  </si>
+  <si>
+    <t>Listrik</t>
+  </si>
+  <si>
+    <t>Internet Connection</t>
+  </si>
+  <si>
+    <t>Supports Tool</t>
+  </si>
+  <si>
+    <t>PC (Development Requirement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asumsi pengerjaan </t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>APC Smart UPS</t>
+  </si>
+  <si>
+    <t>Kabel, Router Dll</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="\R\p\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +87,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +141,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +458,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>60000000</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3*E3+(B1*D3)</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>7600000</v>
+      </c>
+      <c r="F4" s="4">
+        <f>C4*E4+(B1*D4)</f>
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>7600000</v>
+      </c>
+      <c r="F5" s="4">
+        <f>C5*E5+(B1*D5)</f>
+        <v>15200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>7000000</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6*E6+(B1*D6)</f>
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f>C7*E7+(B1*D7)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f>C8*E8+(B1*D8)</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(F3:F8)</f>
+        <v>99800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <f>SUM(A2:A7)</f>
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>SUM(A9:A13)</f>
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>SUM(A15:A16)</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>SUM(A18:A19)</f>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A1+A8+A14+A17</f>
+        <v>180</v>
+      </c>
+      <c r="C23">
+        <f>D23-A23</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
